--- a/web/tache.xlsx
+++ b/web/tache.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">ref</t>
   </si>
@@ -45,28 +45,43 @@
     <t xml:space="preserve">desc task 1</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">task2</t>
   </si>
   <si>
     <t xml:space="preserve">desc task 2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">task3</t>
   </si>
   <si>
     <t xml:space="preserve">desc task 3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">task5</t>
   </si>
   <si>
     <t xml:space="preserve">desc task 5</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">task6</t>
   </si>
   <si>
     <t xml:space="preserve">desc task 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">task7</t>
@@ -79,8 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -147,8 +163,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,17 +192,16 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.0969387755102"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
@@ -192,7 +211,7 @@
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -209,8 +228,8 @@
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -221,13 +240,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.1</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -238,13 +257,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.2</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -255,13 +274,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -272,13 +291,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -289,13 +308,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.2</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -324,9 +343,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -350,9 +366,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
